--- a/medicine/Sexualité et sexologie/Cryptorchidie_artificielle/Cryptorchidie_artificielle.xlsx
+++ b/medicine/Sexualité et sexologie/Cryptorchidie_artificielle/Cryptorchidie_artificielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cryptorchidie artificielle ou contraception masculine thermique par remontée testiculaire est une méthode de contraception nécessitant le port d’un dispositif, sans accessoire chauffant électrique, assurant le maintien des testicules au contact de la chaleur corporelle.
 </t>
@@ -513,14 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermorégulation testiculaire
-De 1941 à nos jours, des études scientifiques ont montré l’effet de la chaleur sur la fertilité masculine[1],[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13],[14],[15],[16],[17].
-Pourtant, il faudra attendre encore 50 ans pour que la première publication rapportant l'effet contraceptif de la chaleur chez l'homme soit publiée en 1991[18].
-Les testicules maintenus dans la bourse à l'extérieur du corps restent à une température d'environ 35 °C, au lieu de 37 °C pour le reste du corps. Toute augmentation de température peut freiner la spermatogenèse[19].
-Cryptorchidie artificielle
-Il a été mis en évidence, que des antécédents de problèmes de descentes testiculaires tels que la cryptorchidie ou des pratiques professionnelles amenant à élever la température scrotale, étaient des facteurs communs à certains hommes en état d’infertilité[20].
-C’est à partir de 1985, que plusieurs chercheurs, dont les professeurs andrologues français Mieusset et Soufir, ont décidé de mener des essais cliniques sur l'efficacité et la réversibilité de l’utilisation de la température corporelle pour atteindre un état contracepté chez l'animal[21],[22] puis chez l'homme grâce au port d'un dispositif maintenant les testicules dans la poche inguinale en position supra-scrotale dite de cryptorchidie artificielle[23],[24],[25],[26],[27],[18],[28],[29],[30],[31],[32].
-Jusqu'à ce jour, d'autres études aux États-Unis, en Indonésie, ainsi qu'en Égypte ont été menées sur l'usage de la cryptorchidie artificielle à l'aide d'un suspensoir pour pratiquer la contraception masculine thermique[33],[34].
+          <t>Thermorégulation testiculaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1941 à nos jours, des études scientifiques ont montré l’effet de la chaleur sur la fertilité masculine.
+Pourtant, il faudra attendre encore 50 ans pour que la première publication rapportant l'effet contraceptif de la chaleur chez l'homme soit publiée en 1991.
+Les testicules maintenus dans la bourse à l'extérieur du corps restent à une température d'environ 35 °C, au lieu de 37 °C pour le reste du corps. Toute augmentation de température peut freiner la spermatogenèse.
 </t>
         </is>
       </c>
@@ -546,13 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Principe général</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La production de spermatozoïdes est thermodépendante[20],[35].
-À une température de 35 °C, les testicules ont une spermatogenèse normale de l'ordre de 50 millions par millilitre de sperme. C'est l'une des raisons pour lesquelles ils se situent dans le scrotum, à distance de la chaleur corporelle. Si les testicules sont maintenus dans la poche inguinale et donc exposés à la température du corps, en général 37 °C, la production de spermatozoïdes est alors fortement affectée, et diminue rapidement. La réversibilité de la spermatogenèse étant importante, le maintien des testicules en phase de réchauffement doit être quotidien[35].
+          <t>Cryptorchidie artificielle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été mis en évidence, que des antécédents de problèmes de descentes testiculaires tels que la cryptorchidie ou des pratiques professionnelles amenant à élever la température scrotale, étaient des facteurs communs à certains hommes en état d’infertilité.
+C’est à partir de 1985, que plusieurs chercheurs, dont les professeurs andrologues français Mieusset et Soufir, ont décidé de mener des essais cliniques sur l'efficacité et la réversibilité de l’utilisation de la température corporelle pour atteindre un état contracepté chez l'animal, puis chez l'homme grâce au port d'un dispositif maintenant les testicules dans la poche inguinale en position supra-scrotale dite de cryptorchidie artificielle.
+Jusqu'à ce jour, d'autres études aux États-Unis, en Indonésie, ainsi qu'en Égypte ont été menées sur l'usage de la cryptorchidie artificielle à l'aide d'un suspensoir pour pratiquer la contraception masculine thermique,.
 </t>
         </is>
       </c>
@@ -578,14 +598,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Principe général</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production de spermatozoïdes est thermodépendante,.
+À une température de 35 °C, les testicules ont une spermatogenèse normale de l'ordre de 50 millions par millilitre de sperme. C'est l'une des raisons pour lesquelles ils se situent dans le scrotum, à distance de la chaleur corporelle. Si les testicules sont maintenus dans la poche inguinale et donc exposés à la température du corps, en général 37 °C, la production de spermatozoïdes est alors fortement affectée, et diminue rapidement. La réversibilité de la spermatogenèse étant importante, le maintien des testicules en phase de réchauffement doit être quotidien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>En pratique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est nécessaire de maintenir les testicules dans la poche inguinale quotidiennement une quinzaine d'heures par jour.
 C'est cette technique qui a été le plus fréquemment utilisée au cours des études scientifiques en France de 1985 à 1995.
-Il n'y a pas de bilan biologique à prévoir, mais un examen de sperme est à réaliser avant de commencer. Il doit être considéré comme normal suivant les normes[36] de l'Organisation Mondiale de la Santé (O.M.S.) à savoir:
+Il n'y a pas de bilan biologique à prévoir, mais un examen de sperme est à réaliser avant de commencer. Il doit être considéré comme normal suivant les normes de l'Organisation Mondiale de la Santé (O.M.S.) à savoir:
 concentration de spermatozoïdes supérieure à 15 millions/ml,
 mobilité progressive supérieure à 32 %,
 formes normales selon la technique utilisée
@@ -597,45 +653,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cryptorchidie_artificielle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Avantages</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une quinzaine d'essais cliniques sur plus de 30 ans, et une dizaine d'études d'acceptabilités passées ou en cours.[réf. nécessaire]
-Il y a actuellement 1 grossesse non-désirée sur plus de 1331 cycles d’exposition en essais cliniques, 0 grossesse non désirée sur à minima 960 cycles d’exposition en suivi médical hors essais cliniques, et des résultats attendus pour 2021 sur 7200 cycles d’exposition.[réf. nécessaire]
-Efficacité
-Depuis 2007, il a été défini le seuil contraceptif masculin. Que ce soit pour une méthode thermique ou hormonale, il est de 1 million de spermatozoïdes/millilitre par éjaculat[37],[38],[39].
-A ce jour la cryptorchidie artificielle ou contraception masculine thermique par remontée testiculaire à l'aide de port d'un dispositif, a été testée sur assez de volontaires pour établir que l'efficacité de la contraception masculine thermique est satisfaisante[38]. En effet, sur les 50 couples suivis durant 537 cycles de grossesse, une seule a été constatée à la suite d'une mauvaise utilisation de la technique[38]. L'indice de Pearl serait donc inférieur à 0,5 et cette contraception peut être considérée comme efficace selon les normes de l'O.M.S.
-Réversibilité
-Lorsque le protocole de maintien testiculaire est arrêté, la concentration de spermatozoïdes revient à des valeurs normales au bout de 6 à 9 mois mais la spermatogenèse se relance de suite. De ce fait, la reprise d'une autre forme de contraception est immédiatement nécessaire. Durant les études scientifiques menées sur le sujet, tous les couples désirant une grossesse l'ont eue. Il est à noter qu'aucune fausse couche spontanée ne s'est produite[38].
-Autres avantages
-Il n'a pas d'effet sur la libido, l'apparence du sperme. Le port du dispositif est non douloureux, il peut être porté durant l'acte sexuel. Il n’entraîne aucune forme de dérèglement hormonal. Il ne nécessite aucun acte chirurgical.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -657,38 +674,409 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Avantages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une quinzaine d'essais cliniques sur plus de 30 ans, et une dizaine d'études d'acceptabilités passées ou en cours.[réf. nécessaire]
+Il y a actuellement 1 grossesse non-désirée sur plus de 1331 cycles d’exposition en essais cliniques, 0 grossesse non désirée sur à minima 960 cycles d’exposition en suivi médical hors essais cliniques, et des résultats attendus pour 2021 sur 7200 cycles d’exposition.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Avantages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Efficacité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2007, il a été défini le seuil contraceptif masculin. Que ce soit pour une méthode thermique ou hormonale, il est de 1 million de spermatozoïdes/millilitre par éjaculat.
+A ce jour la cryptorchidie artificielle ou contraception masculine thermique par remontée testiculaire à l'aide de port d'un dispositif, a été testée sur assez de volontaires pour établir que l'efficacité de la contraception masculine thermique est satisfaisante. En effet, sur les 50 couples suivis durant 537 cycles de grossesse, une seule a été constatée à la suite d'une mauvaise utilisation de la technique. L'indice de Pearl serait donc inférieur à 0,5 et cette contraception peut être considérée comme efficace selon les normes de l'O.M.S.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Avantages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réversibilité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque le protocole de maintien testiculaire est arrêté, la concentration de spermatozoïdes revient à des valeurs normales au bout de 6 à 9 mois mais la spermatogenèse se relance de suite. De ce fait, la reprise d'une autre forme de contraception est immédiatement nécessaire. Durant les études scientifiques menées sur le sujet, tous les couples désirant une grossesse l'ont eue. Il est à noter qu'aucune fausse couche spontanée ne s'est produite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Avantages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres avantages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas d'effet sur la libido, l'apparence du sperme. Le port du dispositif est non douloureux, il peut être porté durant l'acte sexuel. Il n’entraîne aucune forme de dérèglement hormonal. Il ne nécessite aucun acte chirurgical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Limites</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contre-indications
-Il n'y a pas eu d'étude portant sur l'application de la contraception masculine thermique sur des personnes ayant des antécédents de problématiques testiculaires ou hernies. Il est donc recommandé de ne pas la pratiquer en cas de[35] :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il n'y a pas eu d'étude portant sur l'application de la contraception masculine thermique sur des personnes ayant des antécédents de problématiques testiculaires ou hernies. Il est donc recommandé de ne pas la pratiquer en cas de :
 anomalie de la migration des testicules (cryptorchidie, ectopie) traitée ou non;
 hernie inguinale traitée ou non;
 cancer du testicule
 dilatation variqueuse des veines du cordon spermatique
-obésité
-Prévention des infections et maladies sexuellement transmissibles
-Ce dispositif, et les méthodes de contraception masculines thermiques ne protège pas des infections et maladies sexuellement transmissibles.
-Effets secondaires
-À ce jour, seule une diminution de quelques pour cent du volume des testicules a été observée durant la période de contraception.
+obésité</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Limites</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prévention des infections et maladies sexuellement transmissibles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce dispositif, et les méthodes de contraception masculines thermiques ne protège pas des infections et maladies sexuellement transmissibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Limites</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À ce jour, seule une diminution de quelques pour cent du volume des testicules a été observée durant la période de contraception.
 Il n'a pas été mis en évidence une augmentation du risque de torsion testiculaire.
-Toutefois, il a été démontré que l'intégrité de la chromatine des spermatozoïdes ainsi que le nombre de chromosomes produits durant la phase de réchauffement de 15h/jour sont altérés par l'exposition à la chaleur corporelle[30],[40]. La chromatine est la structure au sein de laquelle l'ADN se trouve empaqueté et compacté dans le volume limité du noyau des cellules eucaryotes.
+Toutefois, il a été démontré que l'intégrité de la chromatine des spermatozoïdes ainsi que le nombre de chromosomes produits durant la phase de réchauffement de 15h/jour sont altérés par l'exposition à la chaleur corporelle,. La chromatine est la structure au sein de laquelle l'ADN se trouve empaqueté et compacté dans le volume limité du noyau des cellules eucaryotes.
 La chaleur altère la qualité nucléaire des spermatozoïdes produits durant la phase de réchauffement de 15h/jour. Il est donc nécessaire d'utiliser une autre méthode de contraception au démarrage du protocole de la CMT et jusqu'à avoir atteint le seuil contraceptif de 1 million/ml de spermatozoïdes, ainsi qu'à l'arrêt de la CMT jusqu'à ce que le spermogramme soit à nouveau dans les valeurs standards de l'OMS de 2010.
-Un médecin du centre d’urologie Générale-Beaulieu en Suisse, indique "À long terme, nous ne savons pas s’il y a un effet durable sur la fertilité, voire la stérilité. Nous ne savons pas non plus si l’augmentation de la température pourrait favoriser le cancer des testicules chez certains patients"[41].
-Un auteur de bande dessinée indique cependant "Il faut relativiser les craintes. On est des milliers à avoir pratiqué la méthode thermique depuis les années 80 et il n’y a jamais eu de problème."[42].
-Efficacité et réversibilité différées
-Une quinzaine d'essais cliniques sur plus de 30 ans, des études d'acceptabilités passées ou en cours....
-Le cycle de la spermatogenèse est en général de 74 jours[43]. Pour atteindre le seuil contraceptif, il faudra compter 2 à 3 mois de maintien quotidien des testicule dans la poche inguinale durant 15 heures par jour.
+Un médecin du centre d’urologie Générale-Beaulieu en Suisse, indique "À long terme, nous ne savons pas s’il y a un effet durable sur la fertilité, voire la stérilité. Nous ne savons pas non plus si l’augmentation de la température pourrait favoriser le cancer des testicules chez certains patients".
+Un auteur de bande dessinée indique cependant "Il faut relativiser les craintes. On est des milliers à avoir pratiqué la méthode thermique depuis les années 80 et il n’y a jamais eu de problème.".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Limites</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Efficacité et réversibilité différées</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une quinzaine d'essais cliniques sur plus de 30 ans, des études d'acceptabilités passées ou en cours....
+Le cycle de la spermatogenèse est en général de 74 jours. Pour atteindre le seuil contraceptif, il faudra compter 2 à 3 mois de maintien quotidien des testicule dans la poche inguinale durant 15 heures par jour.
 De même, la récupération d'une spermatogenèse normale prendra 6 à 9 mois mais la spermatogenèse se réactive dès l'arrêt du port du dispositif.
-Facteurs d'inefficacité
-Taux d'échec
-En effet, 1 cas sur 537 cycles de grossesse (suivis avec 50 couples) a mené à une grossesse, à la suite d'une mauvaise utilisation de la technique[38].
-Oubli
-Le port est quotidien. En cas de doute il est nécessaire de réaliser un spermogramme pour vérifier la concentration de spermatozoïdes avant d'avoir des relations sexuelles sans autre méthode de contraception[32],[31],[30],[29],[28],[27],[26],[25],[24],[23],[18].
-Interactions avec d'autres médicaments
-A ce jour, aucune interaction avec d'autres médicaments n'a été constatée[23],[24],[25],[26],[27],[28],[29],[30],[31],[32].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Limites</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Facteurs d'inefficacité</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Taux d'échec</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En effet, 1 cas sur 537 cycles de grossesse (suivis avec 50 couples) a mené à une grossesse, à la suite d'une mauvaise utilisation de la technique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Limites</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Facteurs d'inefficacité</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Oubli</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le port est quotidien. En cas de doute il est nécessaire de réaliser un spermogramme pour vérifier la concentration de spermatozoïdes avant d'avoir des relations sexuelles sans autre méthode de contraception.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptorchidie_artificielle</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Limites</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Facteurs d'inefficacité</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Interactions avec d'autres médicaments</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A ce jour, aucune interaction avec d'autres médicaments n'a été constatée.
 </t>
         </is>
       </c>
